--- a/src/main/java/com/coffee/ImportExcel/excel_ template/products.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CDFD44-565D-4899-BE0A-740B582E9010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9068B-472F-4E1C-826C-3D1A27104384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3636" yWindow="1980" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4404" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản phẩm" sheetId="1" r:id="rId1"/>

--- a/src/main/java/com/coffee/ImportExcel/excel_ template/products.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9068B-472F-4E1C-826C-3D1A27104384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C181804B-739E-405C-A11C-A49F31CB4A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4404" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sản phẩm" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">Tên sản phẩm </t>
   </si>
@@ -81,16 +81,7 @@
     <t xml:space="preserve">Giá vốn </t>
   </si>
   <si>
-    <t>Bánh bông lan</t>
-  </si>
-  <si>
-    <t>Bánh</t>
-  </si>
-  <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>Không</t>
   </si>
   <si>
     <t>Cà phê bột truyền thống</t>
@@ -103,9 +94,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,12 +142,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -444,22 +433,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="9"/>
+    <col min="4" max="4" width="8.796875" style="8"/>
     <col min="5" max="5" width="11.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="6"/>
+    <col min="6" max="6" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -469,20 +458,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,36 +481,15 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>40000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5">
-        <v>30000</v>
-      </c>
-      <c r="F3" s="6">
-        <v>50000</v>
-      </c>
-      <c r="H3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -539,18 +507,18 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -564,11 +532,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>16</v>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -581,11 +549,11 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
         <v>30</v>
